--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T12:02:40-03:00</t>
+    <t>2023-12-14T17:06:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T17:06:19-03:00</t>
+    <t>2023-12-15T10:15:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T10:15:00-03:00</t>
+    <t>2023-12-15T17:40:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T17:40:51-03:00</t>
+    <t>2023-12-18T10:08:36-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T10:08:36-03:00</t>
+    <t>2023-12-18T16:30:26-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-18T16:30:26-03:00</t>
+    <t>2023-12-19T10:25:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T10:25:02-03:00</t>
+    <t>2023-12-20T18:19:43-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-20T18:19:43-03:00</t>
+    <t>2023-12-21T12:24:32-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-21T12:24:32-03:00</t>
+    <t>2023-12-22T10:30:34-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T10:30:34-03:00</t>
+    <t>2023-12-22T16:42:14-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-22T16:42:14-03:00</t>
+    <t>2024-01-04T13:08:16-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T13:08:16-03:00</t>
+    <t>2024-01-04T15:48:10-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-04T15:48:10-03:00</t>
+    <t>2024-01-08T09:39:44-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-08T09:39:44-03:00</t>
+    <t>2024-01-18T12:40:46-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T12:40:46-03:00</t>
+    <t>2024-01-18T17:12:33-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-18T17:12:33-03:00</t>
+    <t>2024-01-19T17:28:51-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T17:28:51-03:00</t>
+    <t>2024-01-19T18:12:35-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T18:12:35-03:00</t>
+    <t>2024-01-21T18:35:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-21T18:35:12-03:00</t>
+    <t>2024-02-07T09:19:37-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T09:19:37-03:00</t>
+    <t>2024-02-07T18:11:02-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-07T18:11:02-03:00</t>
+    <t>2024-02-08T18:05:18-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-08T18:05:18-03:00</t>
+    <t>2024-02-09T16:41:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-09T16:41:20-03:00</t>
+    <t>2024-02-16T16:56:19-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-16T16:56:19-03:00</t>
+    <t>2024-02-27T15:34:29-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T15:34:29-03:00</t>
+    <t>2024-03-22T16:03:25-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-22T16:03:25-03:00</t>
+    <t>2024-10-15T16:51:50-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>null (http://www.saude.gov.br)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T16:51:50-03:00</t>
+    <t>2025-01-22T17:38:12-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,17 +691,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="19.00390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.3828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="18.28515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.8359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="16.15625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -710,23 +710,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="34.32421875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="60.96484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="17.7265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="33.12109375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.4609375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.9453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.67578125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="22.2734375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
+++ b/docs/StructureDefinition-BRRoupasUsadasMedicao.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T17:38:12-03:00</t>
+    <t>2025-08-05T10:09:20-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -691,42 +691,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="18.28515625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.09375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="11.8515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.4375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.4375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="11.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="16.15625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="15.40625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.91015625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.265625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.77734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="33.12109375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.4609375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="16.9453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.37109375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.58203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="54.79296875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="16.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="22.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="21.23828125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
